--- a/Turma Maio 2017/Aula 3/Soma SES Vendas trimestre 1.xlsx
+++ b/Turma Maio 2017/Aula 3/Soma SES Vendas trimestre 1.xlsx
@@ -13,8 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -187,20 +185,21 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -544,57 +543,59 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="9"/>
+    <col min="3" max="3" width="30.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1">
@@ -603,15 +604,19 @@
       <c r="E4" s="2">
         <v>230</v>
       </c>
+      <c r="F4" s="2">
+        <f>D4*E4</f>
+        <v>5290</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1">
@@ -620,15 +625,19 @@
       <c r="E5" s="2">
         <v>23.8</v>
       </c>
+      <c r="F5" s="2">
+        <f t="shared" ref="F5:F17" si="0">D5*E5</f>
+        <v>3046.4</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1">
@@ -637,15 +646,19 @@
       <c r="E6" s="2">
         <v>247</v>
       </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>8398</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1">
@@ -654,15 +667,19 @@
       <c r="E7" s="2">
         <v>299</v>
       </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>6279</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1">
@@ -671,16 +688,20 @@
       <c r="E8" s="2">
         <v>250</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1">
@@ -689,16 +710,20 @@
       <c r="E9" s="2">
         <v>220</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>3080</v>
+      </c>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1">
@@ -707,15 +732,19 @@
       <c r="E10" s="2">
         <v>210</v>
       </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>3150</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1">
@@ -724,15 +753,19 @@
       <c r="E11" s="2">
         <v>25</v>
       </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>2225</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1">
@@ -741,15 +774,19 @@
       <c r="E12" s="2">
         <v>250</v>
       </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1">
@@ -758,16 +795,20 @@
       <c r="E13" s="2">
         <v>20</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="1">
@@ -776,15 +817,19 @@
       <c r="E14" s="2">
         <v>220</v>
       </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>2640</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="1">
@@ -793,15 +838,19 @@
       <c r="E15" s="2">
         <v>230</v>
       </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>2990</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1">
@@ -810,15 +859,19 @@
       <c r="E16" s="2">
         <v>20</v>
       </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="1">
@@ -827,86 +880,117 @@
       <c r="E17" s="2">
         <v>299</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>1495</v>
+      </c>
+      <c r="G17" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="6">
+        <f>SUM(D4:D17)</f>
+        <v>511</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="7">
+        <f>SUM(F4:F17)</f>
+        <v>46793.4</v>
+      </c>
       <c r="F20" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="7">
+        <f>SUMIF(A4:A17,"Vila Mariana",F4:F17)</f>
+        <v>27210.400000000001</v>
+      </c>
       <c r="F21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="7">
+        <f>SUMIF(A4:A17,"Brooklin",F4:F17)</f>
+        <v>19583</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="7">
+        <f>SUMIF(B4:B17,"Janeiro",F4:F17)</f>
+        <v>26013.4</v>
+      </c>
       <c r="F23" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="7">
+        <f>SUMIF(B4:B17,"Fevereiro",F4:F17)</f>
+        <v>11855</v>
+      </c>
       <c r="F24" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="7">
+        <f>SUMIF(B4:B17,"Março",F4:F17)</f>
+        <v>8925</v>
+      </c>
       <c r="F25" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="7">
+        <f>SUMIFS($F$4:$F$17,$A$4:$A$17,"Vila Mariana",$B$4:$B$17,"Fevereiro")</f>
+        <v>7805</v>
+      </c>
       <c r="F26" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="7">
+        <f>SUMIFS($F$4:$F$17,$A$4:$A$17,"Brooklin",$B$4:$B$17,"Janeiro")</f>
+        <v>11398</v>
+      </c>
       <c r="F27" s="2" t="s">
         <v>26</v>
       </c>
@@ -918,28 +1002,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/Turma Maio 2017/Aula 3/Soma SES Vendas trimestre 1.xlsx
+++ b/Turma Maio 2017/Aula 3/Soma SES Vendas trimestre 1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -194,12 +194,12 @@
     <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -542,31 +542,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="9"/>
-    <col min="3" max="3" width="30.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
+    <col min="3" max="3" width="30.140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="9"/>
+    <col min="7" max="7" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -589,13 +589,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1">
@@ -610,13 +610,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1">
@@ -631,13 +631,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1">
@@ -652,13 +652,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1">
@@ -673,13 +673,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1">
@@ -692,16 +692,16 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1">
@@ -714,16 +714,16 @@
         <f t="shared" si="0"/>
         <v>3080</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1">
@@ -738,13 +738,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1">
@@ -759,13 +759,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1">
@@ -780,13 +780,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1">
@@ -799,16 +799,16 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="1">
@@ -823,13 +823,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="1">
@@ -844,13 +844,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1">
@@ -865,13 +865,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="1">
@@ -884,113 +884,86 @@
         <f t="shared" si="0"/>
         <v>1495</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="6">
-        <f>SUM(D4:D17)</f>
-        <v>511</v>
-      </c>
+      <c r="D19" s="6"/>
       <c r="F19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="7">
-        <f>SUM(F4:F17)</f>
-        <v>46793.4</v>
-      </c>
+      <c r="D20" s="7"/>
       <c r="F20" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="7">
-        <f>SUMIF(A4:A17,"Vila Mariana",F4:F17)</f>
-        <v>27210.400000000001</v>
-      </c>
+      <c r="D21" s="7"/>
       <c r="F21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="7">
-        <f>SUMIF(A4:A17,"Brooklin",F4:F17)</f>
-        <v>19583</v>
-      </c>
+      <c r="D22" s="7"/>
       <c r="F22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="7">
-        <f>SUMIF(B4:B17,"Janeiro",F4:F17)</f>
-        <v>26013.4</v>
-      </c>
+      <c r="D23" s="7"/>
       <c r="F23" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="7">
-        <f>SUMIF(B4:B17,"Fevereiro",F4:F17)</f>
-        <v>11855</v>
-      </c>
+      <c r="D24" s="7"/>
       <c r="F24" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="7">
-        <f>SUMIF(B4:B17,"Março",F4:F17)</f>
-        <v>8925</v>
-      </c>
+      <c r="D25" s="7"/>
       <c r="F25" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="7">
-        <f>SUMIFS($F$4:$F$17,$A$4:$A$17,"Vila Mariana",$B$4:$B$17,"Fevereiro")</f>
-        <v>7805</v>
-      </c>
+      <c r="D26" s="7"/>
       <c r="F26" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="7">
-        <f>SUMIFS($F$4:$F$17,$A$4:$A$17,"Brooklin",$B$4:$B$17,"Janeiro")</f>
-        <v>11398</v>
-      </c>
+      <c r="D27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>26</v>
       </c>

--- a/Turma Maio 2017/Aula 3/Soma SES Vendas trimestre 1.xlsx
+++ b/Turma Maio 2017/Aula 3/Soma SES Vendas trimestre 1.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio\Desktop\TeachX.git\trunk\Turma Maio 2017\Aula 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80643735\Desktop\TeachX.git\trunk\Turma Maio 2017\Aula 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1E6BBF-CC6A-4A19-B247-8D6D3F469D2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -105,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -539,11 +548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
